--- a/docs/assets/disciplinas/LOQ4078.xlsx
+++ b/docs/assets/disciplinas/LOQ4078.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EQD-8,EQN-11</t>
+    <t>EQD-8,EQN-10</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -143,7 +143,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4086 -  Operações Unitárias II  (Requisito fraco)
+    <t xml:space="preserve">LOQ4002 -  Reatores Quimicos  (Requisito fraco)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4057 -  Operações Unitárias III  (Requisito fraco)
 </t>
   </si>
 </sst>
@@ -500,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,6 +757,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOQ4078.xlsx
+++ b/docs/assets/disciplinas/LOQ4078.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Este curso visa apresentar aos alunos as ferramentas de modelagem e simulação presentes no ambiente de trabalho do engenheiro químico. Essas ferramentas auxiliam no projeto, operação e otimização de processos industriais.</t>
+    <t>5817066 - Félix Monteiro Pereira</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5817066 - Félix Monteiro Pereira</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Serão abordados assuntos de interesse e preocupação dos Engenheiros Químicos com ênfase em avanços e inovações de aspectos básicos relativos ao programa de Engenharia Química.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Introdução a modelagem, simulação e otimização de processos. Resolução de problemas em Engenharia Química envolvendo: sistemas de equações lineares, sistemas de equações não lineares, sistemas de equações diferenciais de primeira ordem (problemas de valor inicial), equações diferenciais de segunda ordem (problemas de valor de contorno), equações diferenciais parciais, otimização de processos, regressão não linear e análise estatística. 2. Introdução aos simuladores de processo: operações lógicas, operações unitárias, diagramas de fluxo em processos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação do aprendizado será realizada por meio da resolução de problemas de engenharia química propostos aos alunos. A média final será calculada pela média aritmética entre a nota obtida na resolução de problemas relativos aos itens 1 e 2 do programa do curso.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = (P1 + P2)/2 Onde: P1 é a nota obtida pela avaliação da resolução de problemas referentes ao item 1 do Programa do curso;P2 é a nota obtida pela avaliação da resolução de problemas referentes ao item 2 do Programa do curso;MF é a média final do período.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova (PR) para alunos que tenham MF maior ou igual a 3,0 e menor do que 5,0 e pelo menos 70% de frequência. A nota de recuperação (NR) será a média simples entre a média final (MF) e a prova de recuperação (PR). Será considerado aprovado o aluno com NR maior ou igual a 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) HIMMELBLAU, D.M.; BISCHOFF, K.B. Process analysis and simulation-deterministic systems. New York: John Wiley, 1968.2) FINLAYSON, B. A.. Non-linear analysis in chemical engineering. New York: McGraw-Hill, 19803) CONSTANTINIDES, A.; MOSTOUFI, N. Numerical methods for chemical engineers with MATLAB applications. Prentice-Hall, 1999.4) CUTLIP, M.B.; SACHAM, M. Problem solving in chemical and biochemical engineering with POLYMATHTM, Excel and MATLAB®– 2nd ed. Upper Saddle River, NJ: Prentice-Hall, 2008.5) DYMENT, J.; MANTRALA, V. Jump Start: Getting Started with Aspen Plus® V8 - A Brief Tutorial (and supplement to training and online documentation), ASPENTECH, 2015.6) FARES, A.D. Process Simulation Using Aspen HYSYS V8, Ahmed Deyab Fares, 2016.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -504,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,34 +626,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -676,93 +670,82 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4078.xlsx
+++ b/docs/assets/disciplinas/LOQ4078.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Este curso visa apresentar aos alunos as ferramentas de modelagem e simulação presentes no ambiente de trabalho do engenheiro químico. Essas ferramentas auxiliam no projeto, operação e otimização de processos industriais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>This course aims to introduce the students the modeling and simulation tools present in the work environment of the chemical engineer. These tools aids to design, operation and optimization of industrial processes.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5817066 - Félix Monteiro Pereira</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>This course aims to introduce the students the modeling and simulation tools present in the work environment of the chemical engineer. These tools aids to design, operation and optimization of industrial processes.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Serão abordados assuntos de interesse e preocupação dos Engenheiros Químicos com ênfase em avanços e inovações de aspectos básicos relativos ao programa de Engenharia Química.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução a modelagem, simulação e otimização de processos. Resolução de problemas em Engenharia Química envolvendo: sistemas de equações lineares, sistemas de equações não lineares, sistemas de equações diferenciais de primeira ordem (problemas de valor inicial), equações diferenciais de segunda ordem (problemas de valor de contorno), equações diferenciais parciais, otimização de processos, regressão não linear e análise estatística. 2. Introdução aos simuladores de processo: operações lógicas, operações unitárias, diagramas de fluxo em processos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação do aprendizado será realizada por meio da resolução de problemas de engenharia química propostos aos alunos. A média final será calculada pela média aritmética entre a nota obtida na resolução de problemas relativos aos itens 1 e 2 do programa do curso.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação do aprendizado será realizada por meio da resolução de problemas de engenharia química propostos aos alunos. A média final será calculada pela média aritmética entre a nota obtida na resolução de problemas relativos aos itens 1 e 2 do programa do curso.</t>
+    <t>MF = (P1 + P2)/2 Onde: P1 é a nota obtida pela avaliação da resolução de problemas referentes ao item 1 do Programa do curso;P2 é a nota obtida pela avaliação da resolução de problemas referentes ao item 2 do Programa do curso;MF é a média final do período.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = (P1 + P2)/2 Onde: P1 é a nota obtida pela avaliação da resolução de problemas referentes ao item 1 do Programa do curso;P2 é a nota obtida pela avaliação da resolução de problemas referentes ao item 2 do Programa do curso;MF é a média final do período.</t>
+    <t>A recuperação será feita por meio de uma prova (PR) para alunos que tenham MF maior ou igual a 3,0 e menor do que 5,0 e pelo menos 70% de frequência. A nota de recuperação (NR) será a média simples entre a média final (MF) e a prova de recuperação (PR). Será considerado aprovado o aluno com NR maior ou igual a 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova (PR) para alunos que tenham MF maior ou igual a 3,0 e menor do que 5,0 e pelo menos 70% de frequência. A nota de recuperação (NR) será a média simples entre a média final (MF) e a prova de recuperação (PR). Será considerado aprovado o aluno com NR maior ou igual a 5,0.</t>
+    <t>1) HIMMELBLAU, D.M.; BISCHOFF, K.B. Process analysis and simulation-deterministic systems. New York: John Wiley, 1968.2) FINLAYSON, B. A.. Non-linear analysis in chemical engineering. New York: McGraw-Hill, 19803) CONSTANTINIDES, A.; MOSTOUFI, N. Numerical methods for chemical engineers with MATLAB applications. Prentice-Hall, 1999.4) CUTLIP, M.B.; SACHAM, M. Problem solving in chemical and biochemical engineering with POLYMATHTM, Excel and MATLAB®– 2nd ed. Upper Saddle River, NJ: Prentice-Hall, 2008.5) DYMENT, J.; MANTRALA, V. Jump Start: Getting Started with Aspen Plus® V8 - A Brief Tutorial (and supplement to training and online documentation), ASPENTECH, 2015.6) FARES, A.D. Process Simulation Using Aspen HYSYS V8, Ahmed Deyab Fares, 2016.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,13 +504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -626,37 +635,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -670,82 +676,93 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
